--- a/public/template/WFG Title_sample_template.xlsx
+++ b/public/template/WFG Title_sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Developer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tester\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02F2976C-07AC-4EFF-B716-4F80CD82075D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D32D46-2E1C-4BC1-B7EA-94D88F91619C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="2688" windowWidth="22752" windowHeight="6816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with_all_correctdata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Order Received Data and Time</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>SIPL0004</t>
-  </si>
-  <si>
     <t>FL</t>
   </si>
   <si>
@@ -74,15 +71,9 @@
     <t>Tier</t>
   </si>
   <si>
-    <t xml:space="preserve">Search(T1) </t>
-  </si>
-  <si>
     <t>Search(T2)</t>
   </si>
   <si>
-    <t>SIPL0005</t>
-  </si>
-  <si>
     <t>Product Name</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>Municipality</t>
   </si>
   <si>
-    <t>FLClay</t>
-  </si>
-  <si>
     <t>Process</t>
   </si>
   <si>
@@ -114,6 +102,33 @@
   </si>
   <si>
     <t>Current Owner Search</t>
+  </si>
+  <si>
+    <t>WFG18-001</t>
+  </si>
+  <si>
+    <t>SIPL5316</t>
+  </si>
+  <si>
+    <t>SIPL5688</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Shelby</t>
+  </si>
+  <si>
+    <t>Search(T1)</t>
+  </si>
+  <si>
+    <t>WFG18-002</t>
+  </si>
+  <si>
+    <t>SIPL6118</t>
+  </si>
+  <si>
+    <t>SIPL4167</t>
   </si>
 </sst>
 </file>
@@ -123,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +279,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -452,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -582,6 +604,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -627,11 +662,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -990,17 +1027,18 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="8" width="16" customWidth="1"/>
+    <col min="6" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5546875" customWidth="1"/>
   </cols>
@@ -1019,16 +1057,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -1037,95 +1075,91 @@
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45436</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1213286</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>45436.041666666664</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45439</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2193289</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>45439.083333333336</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/WFG Title_sample_template.xlsx
+++ b/public/template/WFG Title_sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tester\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Developer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D32D46-2E1C-4BC1-B7EA-94D88F91619C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02F2976C-07AC-4EFF-B716-4F80CD82075D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="2688" windowWidth="22752" windowHeight="6816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with_all_correctdata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Order Received Data and Time</t>
   </si>
@@ -59,6 +59,9 @@
     <t>Status</t>
   </si>
   <si>
+    <t>SIPL0004</t>
+  </si>
+  <si>
     <t>FL</t>
   </si>
   <si>
@@ -71,9 +74,15 @@
     <t>Tier</t>
   </si>
   <si>
+    <t xml:space="preserve">Search(T1) </t>
+  </si>
+  <si>
     <t>Search(T2)</t>
   </si>
   <si>
+    <t>SIPL0005</t>
+  </si>
+  <si>
     <t>Product Name</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
     <t>Municipality</t>
   </si>
   <si>
+    <t>FLClay</t>
+  </si>
+  <si>
     <t>Process</t>
   </si>
   <si>
@@ -102,33 +114,6 @@
   </si>
   <si>
     <t>Current Owner Search</t>
-  </si>
-  <si>
-    <t>WFG18-001</t>
-  </si>
-  <si>
-    <t>SIPL5316</t>
-  </si>
-  <si>
-    <t>SIPL5688</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Shelby</t>
-  </si>
-  <si>
-    <t>Search(T1)</t>
-  </si>
-  <si>
-    <t>WFG18-002</t>
-  </si>
-  <si>
-    <t>SIPL6118</t>
-  </si>
-  <si>
-    <t>SIPL4167</t>
   </si>
 </sst>
 </file>
@@ -138,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,13 +264,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -474,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -604,19 +582,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -662,13 +627,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1027,18 +990,17 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="16" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5546875" customWidth="1"/>
   </cols>
@@ -1057,16 +1019,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -1075,91 +1037,95 @@
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45436.041666666664</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>45436</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1213286</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45439.083333333336</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4" t="s">
+        <v>45439</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2193289</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
